--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N2">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P2">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q2">
-        <v>1.912633087997</v>
+        <v>1.846147042154333</v>
       </c>
       <c r="R2">
-        <v>17.213697791973</v>
+        <v>16.615323379389</v>
       </c>
       <c r="S2">
-        <v>0.01091929124073836</v>
+        <v>0.0116486108812906</v>
       </c>
       <c r="T2">
-        <v>0.01091929124073836</v>
+        <v>0.0116486108812906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.333195</v>
       </c>
       <c r="O3">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P3">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q3">
-        <v>16.484055642815</v>
+        <v>14.83234833501167</v>
       </c>
       <c r="R3">
-        <v>148.356500785335</v>
+        <v>133.491135015105</v>
       </c>
       <c r="S3">
-        <v>0.0941080678369587</v>
+        <v>0.09358748261389342</v>
       </c>
       <c r="T3">
-        <v>0.09410806783695873</v>
+        <v>0.09358748261389344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N4">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O4">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P4">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q4">
-        <v>0.121062633274</v>
+        <v>0.2962554998853333</v>
       </c>
       <c r="R4">
-        <v>1.089563699466</v>
+        <v>2.666299498968</v>
       </c>
       <c r="S4">
-        <v>0.0006911509370957728</v>
+        <v>0.001869279619016386</v>
       </c>
       <c r="T4">
-        <v>0.0006911509370957729</v>
+        <v>0.001869279619016386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N5">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P5">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q5">
-        <v>15.648461126757</v>
+        <v>13.59376468669567</v>
       </c>
       <c r="R5">
-        <v>140.836150140813</v>
+        <v>122.343882180261</v>
       </c>
       <c r="S5">
-        <v>0.08933762862555915</v>
+        <v>0.08577240687305424</v>
       </c>
       <c r="T5">
-        <v>0.08933762862555916</v>
+        <v>0.08577240687305424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N6">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O6">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P6">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q6">
-        <v>0.215780587595</v>
+        <v>0.4767307122993333</v>
       </c>
       <c r="R6">
-        <v>1.942025288355</v>
+        <v>4.290576410693999</v>
       </c>
       <c r="S6">
-        <v>0.001231899152447976</v>
+        <v>0.003008021807545271</v>
       </c>
       <c r="T6">
-        <v>0.001231899152447976</v>
+        <v>0.003008021807545271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N7">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P7">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q7">
-        <v>5.303099953072111</v>
+        <v>5.688772844559889</v>
       </c>
       <c r="R7">
-        <v>47.727899577649</v>
+        <v>51.198955601039</v>
       </c>
       <c r="S7">
-        <v>0.03027558878372343</v>
+        <v>0.0358943788036528</v>
       </c>
       <c r="T7">
-        <v>0.03027558878372344</v>
+        <v>0.03589437880365281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.333195</v>
       </c>
       <c r="O8">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P8">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q8">
         <v>45.70484284437278</v>
@@ -948,10 +948,10 @@
         <v>411.343585599355</v>
       </c>
       <c r="S8">
-        <v>0.260930595241624</v>
+        <v>0.2883832747489951</v>
       </c>
       <c r="T8">
-        <v>0.2609305952416241</v>
+        <v>0.2883832747489951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N9">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O9">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P9">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q9">
-        <v>0.3356667041175556</v>
+        <v>0.9128905793075556</v>
       </c>
       <c r="R9">
-        <v>3.021000337058001</v>
+        <v>8.216015213768001</v>
       </c>
       <c r="S9">
-        <v>0.001916333313001896</v>
+        <v>0.00576005426043453</v>
       </c>
       <c r="T9">
-        <v>0.001916333313001896</v>
+        <v>0.00576005426043453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N10">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P10">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q10">
-        <v>43.388015185841</v>
+        <v>41.88823405679011</v>
       </c>
       <c r="R10">
-        <v>390.492136672569</v>
+        <v>376.994106511111</v>
       </c>
       <c r="S10">
-        <v>0.2477037426284029</v>
+        <v>0.2643016660593726</v>
       </c>
       <c r="T10">
-        <v>0.2477037426284029</v>
+        <v>0.2643016660593726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05817833333333333</v>
+        <v>0.1428486666666667</v>
       </c>
       <c r="N11">
-        <v>0.174535</v>
+        <v>0.428546</v>
       </c>
       <c r="O11">
-        <v>0.006275976703931181</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="P11">
-        <v>0.006275976703931182</v>
+        <v>0.01535599711660737</v>
       </c>
       <c r="Q11">
-        <v>0.5982883131794444</v>
+        <v>1.469012309621555</v>
       </c>
       <c r="R11">
-        <v>5.384594818615001</v>
+        <v>13.221110786594</v>
       </c>
       <c r="S11">
-        <v>0.003415649545401297</v>
+        <v>0.009269008580507734</v>
       </c>
       <c r="T11">
-        <v>0.003415649545401299</v>
+        <v>0.009269008580507736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5156803333333333</v>
+        <v>0.5531836666666666</v>
       </c>
       <c r="N12">
-        <v>1.547041</v>
+        <v>1.659551</v>
       </c>
       <c r="O12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794156</v>
       </c>
       <c r="P12">
-        <v>0.05562891841766063</v>
+        <v>0.05946633586794157</v>
       </c>
       <c r="Q12">
-        <v>2.528279429094555</v>
+        <v>1.855964945870333</v>
       </c>
       <c r="R12">
-        <v>22.754514861851</v>
+        <v>16.703684512833</v>
       </c>
       <c r="S12">
-        <v>0.01443403839319884</v>
+        <v>0.01171055878546415</v>
       </c>
       <c r="T12">
-        <v>0.01443403839319884</v>
+        <v>0.01171055878546415</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.333195</v>
       </c>
       <c r="O13">
-        <v>0.4794386295526496</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="P13">
-        <v>0.4794386295526497</v>
+        <v>0.4777655233631019</v>
       </c>
       <c r="Q13">
-        <v>21.79001244479388</v>
+        <v>14.91122751663166</v>
       </c>
       <c r="R13">
-        <v>196.110112003145</v>
+        <v>134.201047649685</v>
       </c>
       <c r="S13">
-        <v>0.1243999664740668</v>
+        <v>0.09408518559872923</v>
       </c>
       <c r="T13">
-        <v>0.1243999664740668</v>
+        <v>0.09408518559872925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03264066666666667</v>
+        <v>0.08877066666666666</v>
       </c>
       <c r="N14">
-        <v>0.09792200000000001</v>
+        <v>0.266312</v>
       </c>
       <c r="O14">
-        <v>0.003521105742701173</v>
+        <v>0.009542700909862518</v>
       </c>
       <c r="P14">
-        <v>0.003521105742701173</v>
+        <v>0.00954270090986252</v>
       </c>
       <c r="Q14">
-        <v>0.1600307802157778</v>
+        <v>0.2978310016773333</v>
       </c>
       <c r="R14">
-        <v>1.440277021942</v>
+        <v>2.680479015096</v>
       </c>
       <c r="S14">
-        <v>0.0009136214926035037</v>
+        <v>0.001879220542950792</v>
       </c>
       <c r="T14">
-        <v>0.0009136214926035037</v>
+        <v>0.001879220542950792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.219107</v>
+        <v>4.073266333333334</v>
       </c>
       <c r="N15">
-        <v>12.657321</v>
+        <v>12.219799</v>
       </c>
       <c r="O15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="P15">
-        <v>0.4551353695830574</v>
+        <v>0.4378694427424867</v>
       </c>
       <c r="Q15">
-        <v>20.685453269659</v>
+        <v>13.66605701757967</v>
       </c>
       <c r="R15">
-        <v>186.169079426931</v>
+        <v>122.994513158217</v>
       </c>
       <c r="S15">
-        <v>0.1180939983290953</v>
+        <v>0.08622854888825718</v>
       </c>
       <c r="T15">
-        <v>0.1180939983290953</v>
+        <v>0.08622854888825718</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1428486666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.428546</v>
+      </c>
+      <c r="O16">
+        <v>0.01535599711660737</v>
+      </c>
+      <c r="P16">
+        <v>0.01535599711660737</v>
+      </c>
+      <c r="Q16">
+        <v>0.4792659904353332</v>
+      </c>
+      <c r="R16">
+        <v>4.313393913918</v>
+      </c>
+      <c r="S16">
+        <v>0.003024018620262661</v>
+      </c>
+      <c r="T16">
+        <v>0.003024018620262662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5531836666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.659551</v>
+      </c>
+      <c r="O17">
+        <v>0.05946633586794156</v>
+      </c>
+      <c r="P17">
+        <v>0.05946633586794157</v>
+      </c>
+      <c r="Q17">
+        <v>0.03372392026555555</v>
+      </c>
+      <c r="R17">
+        <v>0.30351528239</v>
+      </c>
+      <c r="S17">
+        <v>0.000212787397534008</v>
+      </c>
+      <c r="T17">
+        <v>0.000212787397534008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.444398333333333</v>
+      </c>
+      <c r="N18">
+        <v>13.333195</v>
+      </c>
+      <c r="O18">
+        <v>0.4777655233631019</v>
+      </c>
+      <c r="P18">
+        <v>0.4777655233631019</v>
+      </c>
+      <c r="Q18">
+        <v>0.2709453370611111</v>
+      </c>
+      <c r="R18">
+        <v>2.43850803355</v>
+      </c>
+      <c r="S18">
+        <v>0.001709580401484165</v>
+      </c>
+      <c r="T18">
+        <v>0.001709580401484165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.05817833333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.174535</v>
-      </c>
-      <c r="O16">
-        <v>0.006275976703931181</v>
-      </c>
-      <c r="P16">
-        <v>0.006275976703931182</v>
-      </c>
-      <c r="Q16">
-        <v>0.2852369459872222</v>
-      </c>
-      <c r="R16">
-        <v>2.567132513885</v>
-      </c>
-      <c r="S16">
-        <v>0.001628428006081907</v>
-      </c>
-      <c r="T16">
-        <v>0.001628428006081907</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08877066666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.266312</v>
+      </c>
+      <c r="O19">
+        <v>0.009542700909862518</v>
+      </c>
+      <c r="P19">
+        <v>0.00954270090986252</v>
+      </c>
+      <c r="Q19">
+        <v>0.005411755742222222</v>
+      </c>
+      <c r="R19">
+        <v>0.04870580168</v>
+      </c>
+      <c r="S19">
+        <v>3.414648746081123E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.414648746081123E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.073266333333334</v>
+      </c>
+      <c r="N20">
+        <v>12.219799</v>
+      </c>
+      <c r="O20">
+        <v>0.4378694427424867</v>
+      </c>
+      <c r="P20">
+        <v>0.4378694427424867</v>
+      </c>
+      <c r="Q20">
+        <v>0.2483198932344445</v>
+      </c>
+      <c r="R20">
+        <v>2.23487903911</v>
+      </c>
+      <c r="S20">
+        <v>0.001566820921802749</v>
+      </c>
+      <c r="T20">
+        <v>0.001566820921802749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1428486666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.428546</v>
+      </c>
+      <c r="O21">
+        <v>0.01535599711660737</v>
+      </c>
+      <c r="P21">
+        <v>0.01535599711660737</v>
+      </c>
+      <c r="Q21">
+        <v>0.008708530882222221</v>
+      </c>
+      <c r="R21">
+        <v>0.07837677793999999</v>
+      </c>
+      <c r="S21">
+        <v>5.4948108291706E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.4948108291706E-05</v>
       </c>
     </row>
   </sheetData>
